--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:13 AM</t>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>67.319999999999993</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:43 AM</t>
+    <t>Thursday, 18 September, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -62,7 +62,19 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:50 AM</t>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 9:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>67.319999999999993</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>98.010000000000005</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>204.00</t>
   </si>
   <si>
@@ -74,7 +86,34 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:51 AM</t>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 10:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -732,7 +771,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -741,14 +780,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -758,49 +797,148 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
       </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>98.010000000000005</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>23</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>181.33000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +957,25 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -113,7 +113,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:29 AM</t>
+    <t>Thursday, 18 September, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>67.3200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -89,13 +101,16 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:5</t>
+    <t>2:4</t>
   </si>
   <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>32.6400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -110,7 +125,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Thursday, 18 September, 2025 10:34 AM</t>
@@ -771,7 +789,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -780,14 +798,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -797,14 +815,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -837,7 +855,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,7 +888,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -892,53 +910,86 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>181.33000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>37</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>215.49000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>41</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>42</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1023,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -98,6 +110,27 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -125,13 +158,25 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:34 AM</t>
+    <t>Thursday, 18 September, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -822,7 +867,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -831,14 +876,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -888,7 +933,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -921,7 +966,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -930,66 +975,198 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>38</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>215.49000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>41</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>47</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>51</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>52</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>447.31999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>55</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>56</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>57</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1028,10 +1205,30 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>600.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -149,9 +164,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -173,10 +185,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Thursday, 18 September, 2025 11:34 AM</t>
+    <t>Thursday, 18 September, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -933,7 +942,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -942,14 +951,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,11 +968,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -975,14 +984,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -992,14 +1001,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1008,14 +1017,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1025,14 +1034,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1041,14 +1050,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1058,14 +1067,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1087,18 +1096,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1107,20 +1116,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1135,38 +1144,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>447.31999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>55</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>51</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>56</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>57</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q17" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>1047.3199999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>58</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>59</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>60</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1225,10 +1267,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -182,7 +182,10 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>Thursday, 18 September, 2025 11:36 AM</t>
@@ -1156,7 +1159,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1173,18 +1176,18 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="P18" s="13">
-        <v>1047.3199999999999</v>
+        <v>1077.3199999999999</v>
       </c>
       <c r="Q18" s="13"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c t="s" r="A19" s="14">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1192,13 +1195,13 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c t="s" r="G19" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
       <c t="s" r="K19" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:36 AM</t>
+    <t>Thursday, 18 September, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
     <t>58.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -113,6 +122,24 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -188,7 +215,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:50 AM</t>
+    <t>Thursday, 18 September, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -846,7 +873,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -855,14 +882,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -872,14 +899,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -888,14 +915,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -905,14 +932,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -928,7 +955,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -938,14 +965,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -954,14 +981,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -971,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -987,14 +1014,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1004,14 +1031,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1020,14 +1047,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1037,14 +1064,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1053,14 +1080,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1070,14 +1097,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1086,14 +1113,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1103,14 +1130,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1119,31 +1146,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1152,66 +1179,165 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c t="s" r="Q18" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>1077.3199999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>59</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
         <v>60</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>61</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1365.8800000000001</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>68</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>69</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>70</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1275,10 +1401,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:51 AM</t>
+    <t>Thursday, 18 September, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:52 AM</t>
+    <t>Thursday, 18 September, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:56 AM</t>
+    <t>Thursday, 18 September, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -47,18 +47,21 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>600.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -215,7 +215,19 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:57 AM</t>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -873,7 +885,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -882,14 +894,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -899,14 +911,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -915,14 +927,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -932,14 +944,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -948,14 +960,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -965,14 +977,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -981,14 +993,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1010,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,7 +1050,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1054,7 +1066,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1071,7 +1083,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1087,7 +1099,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1104,7 +1116,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1137,7 +1149,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1153,7 +1165,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1170,7 +1182,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,7 +1215,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1252,7 +1264,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1285,7 +1297,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1306,38 +1318,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1365.8800000000001</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>68</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>69</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>60</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>70</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>1445.8800000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>73</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>74</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1416,10 +1461,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:16 PM</t>
+    <t>Thursday, 18 September, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1042,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1043,14 +1052,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1059,14 +1068,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1099,7 +1108,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1132,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1142,11 +1151,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1158,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1182,7 +1191,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1198,7 +1207,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1208,14 +1217,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1224,14 +1233,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1241,14 +1250,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1257,31 +1266,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1290,31 +1299,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1323,66 +1332,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>71</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>72</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>73</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>1445.8800000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>72</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>73</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>74</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1519.8800000000001</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>76</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>77</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1466,10 +1508,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -212,12 +212,21 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -236,7 +245,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:19 PM</t>
+    <t>Thursday, 18 September, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1348,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1349,14 +1358,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1382,49 +1391,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>74</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>75</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>76</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1519.8800000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>75</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>76</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>77</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1534.8800000000001</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>79</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>80</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1513,10 +1555,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>163.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -194,9 +206,6 @@
     <t>32.6400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -245,7 +254,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:21 PM</t>
+    <t>Thursday, 18 September, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1068,7 +1077,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1077,14 +1086,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1101,7 +1110,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1117,7 +1126,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,11 +1136,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1143,14 +1152,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1160,11 +1169,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1176,14 +1185,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1216,7 +1225,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1226,14 +1235,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1242,14 +1251,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1266,7 +1275,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,7 +1308,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,31 +1317,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1341,31 +1350,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1374,31 +1383,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1414,59 +1423,92 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>77</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>78</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>79</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1534.8800000000001</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>78</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>79</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>80</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1698.56</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>81</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>82</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>83</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1560,10 +1602,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -254,7 +254,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:26 PM</t>
+    <t>Thursday, 18 September, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
@@ -254,7 +263,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 12:27 PM</t>
+    <t>Thursday, 18 September, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1037,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1053,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1077,7 +1086,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1103,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1126,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1136,14 +1145,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1152,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1192,7 +1201,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1225,7 +1234,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1235,11 +1244,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1275,7 +1284,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1301,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1334,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,31 +1359,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1383,31 +1392,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1416,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1456,59 +1465,92 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>80</v>
       </c>
-      <c t="s" r="Q24" s="12">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>69</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>82</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1698.56</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>81</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>82</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>83</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1754</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>85</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>86</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1607,10 +1649,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:12 PM</t>
+    <t>Thursday, 18 September, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -170,6 +182,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -227,9 +251,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -263,7 +284,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:14 PM</t>
+    <t>Thursday, 18 September, 2025 1:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1222,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1232,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,11 +1265,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1260,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1300,7 +1321,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,11 +1364,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1359,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1383,7 +1404,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,13 +1420,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1416,7 +1437,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,31 +1446,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1479,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1504,7 +1525,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1519,38 +1540,104 @@
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1754</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>84</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>77</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
         <v>86</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>88</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>77</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>89</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1784.05</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>91</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>92</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>93</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1654,10 +1741,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -180,18 +180,6 @@
   </si>
   <si>
     <t>57.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
@@ -1354,7 +1342,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1352,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,14 +1368,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1404,7 +1392,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,7 +1425,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1453,13 +1441,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1470,7 +1458,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1486,13 +1474,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1503,7 +1491,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1519,24 +1507,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,99 +1533,66 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="A27" s="7">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c t="s" r="C27" s="8">
+      <c r="P27" s="13">
+        <v>1777</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>87</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c t="s" r="H27" s="9">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
         <v>88</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c t="s" r="L27" s="10">
-        <v>77</v>
-      </c>
-      <c r="M27" s="10"/>
-      <c t="s" r="N27" s="8">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
         <v>89</v>
       </c>
-      <c r="O27" s="8"/>
-      <c t="s" r="P27" s="11">
-        <v>90</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1784.05</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>91</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>92</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>93</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1746,15 +1701,10 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -227,12 +227,21 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -272,7 +281,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:33 PM</t>
+    <t>Thursday, 18 September, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1450,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1458,7 +1467,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1474,7 +1483,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1484,14 +1493,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1540,7 +1549,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1550,49 +1559,82 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>87</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>73</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>88</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1777</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>87</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>88</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>89</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1952</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>90</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>91</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>92</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1701,10 +1743,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,18 +110,18 @@
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>600.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>600.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
     <t>248.00</t>
   </si>
   <si>
@@ -281,7 +281,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:48 PM</t>
+    <t>Thursday, 18 September, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1087,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1097,11 +1097,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1113,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1153,7 +1153,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1450,7 +1450,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1483,7 +1483,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1549,7 +1549,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,9 @@
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>248.00</t>
   </si>
   <si>
@@ -227,6 +227,15 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -281,7 +290,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:49 PM</t>
+    <t>Thursday, 18 September, 2025 1:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1087,7 +1096,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1097,11 +1106,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1113,14 +1122,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1153,7 +1162,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1450,21 +1459,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1476,20 +1485,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1500,7 +1509,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1516,24 +1525,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,31 +1551,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1582,59 +1591,92 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>89</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>76</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1952</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>90</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>91</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>92</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1970</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1748,10 +1790,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -65,9 +65,6 @@
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -290,7 +287,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:50 PM</t>
+    <t>Thursday, 18 September, 2025 1:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -964,7 +961,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -974,11 +971,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -990,14 +987,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1007,14 +1004,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1023,7 +1020,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1040,11 +1037,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1056,7 +1053,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1073,14 +1070,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1089,14 +1086,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1106,11 +1103,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1122,14 +1119,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1139,14 +1136,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1155,14 +1152,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1172,11 +1169,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1188,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1205,14 +1202,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1221,14 +1218,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,11 +1235,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1254,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,14 +1268,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1287,7 +1284,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1304,14 +1301,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1337,14 +1334,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,7 +1350,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1370,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1386,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1433,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1485,7 +1482,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1498,15 +1495,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1518,31 +1515,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,28 +1548,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1584,7 +1581,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1597,18 +1594,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,28 +1614,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c t="s" r="A30" s="14">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1660,13 +1657,13 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c t="s" r="G30" s="15">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
       <c t="s" r="K30" s="17">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -83,9 +95,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 1:54 PM</t>
+    <t>Thursday, 18 September, 2025 2:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1011,7 +1020,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1020,14 +1029,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1044,7 +1053,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1060,7 +1069,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1077,7 +1086,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1093,7 +1102,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1103,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1119,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1143,7 +1152,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1152,14 +1161,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1192,7 +1201,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1275,7 +1284,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1308,7 +1317,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1324,7 +1333,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1374,7 +1383,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1390,7 +1399,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1442,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1458,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1473,7 +1482,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1489,21 +1498,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1515,20 +1524,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1539,7 +1548,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1555,24 +1564,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,31 +1590,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1621,59 +1630,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>91</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>78</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1970</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>92</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>93</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>94</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>2157.5</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1792,10 +1834,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>175.00</t>
   </si>
   <si>
-    <t>175.0000</t>
+    <t>350.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -296,7 +296,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 2:11 PM</t>
+    <t>Thursday, 18 September, 2025 2:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1531,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1548,7 +1548,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="P30" s="13">
-        <v>2157.5</v>
+        <v>2332.5</v>
       </c>
       <c r="Q30" s="13"/>
     </row>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 2:34 PM</t>
+    <t>Thursday, 18 September, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -266,13 +266,13 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>30.0000</t>
   </si>
   <si>
     <t>مبرد قدم</t>
@@ -1614,7 +1614,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="P30" s="13">
-        <v>2332.5</v>
+        <v>2347.5</v>
       </c>
       <c r="Q30" s="13"/>
     </row>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
@@ -296,7 +308,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 2:35 PM</t>
+    <t>Thursday, 18 September, 2025 2:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1614,7 +1626,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1630,7 +1642,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,49 +1685,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
       </c>
-      <c t="s" r="Q29" s="12">
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>96</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>78</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>2347.5</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>96</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>97</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>2402.5</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>99</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>100</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>101</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1884,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 2:36 PM</t>
+    <t>Thursday, 18 September, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -86,13 +86,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
@@ -125,6 +128,18 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t>163.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -260,7 +272,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -293,9 +308,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -308,7 +320,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 2:37 PM</t>
+    <t>Thursday, 18 September, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1065,7 +1077,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1074,7 +1086,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1091,11 +1103,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1107,7 +1119,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1124,11 +1136,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1140,14 +1152,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1157,11 +1169,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1173,14 +1185,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1190,14 +1202,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1206,14 +1218,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1223,14 +1235,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,14 +1251,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1263,7 +1275,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,7 +1308,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1312,7 +1324,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1322,14 +1334,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1355,11 +1367,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1371,14 +1383,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1411,7 +1423,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,14 +1433,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1461,7 +1473,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,7 +1506,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1510,7 +1522,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1532,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,20 +1548,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1560,7 +1572,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1576,24 +1588,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,20 +1614,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1626,7 +1638,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1635,31 +1647,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,31 +1680,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,66 +1713,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>100</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>82</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>2402.5</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>99</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>100</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>101</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>2432.3400000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>103</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>104</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>105</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1889,10 +1934,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -200,6 +200,21 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -257,9 +272,6 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -320,7 +332,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 3:02 PM</t>
+    <t>Thursday, 18 September, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,15 +1441,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1449,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1482,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1577,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,7 +1593,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1594,18 +1606,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,7 +1626,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1627,18 +1639,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1654,24 +1666,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,7 +1705,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1704,7 +1716,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1720,24 +1732,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,66 +1758,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>104</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>65</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>105</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>2432.3400000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>103</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>104</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>105</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>2463.3400000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>107</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>108</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>109</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1939,10 +1984,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -260,15 +260,6 @@
     <t>32.6400</t>
   </si>
   <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -332,7 +323,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 3:03 PM</t>
+    <t>Thursday, 18 September, 2025 4:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1597,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1617,7 +1608,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,7 +1641,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,14 +1667,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,14 +1700,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1733,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,82 +1766,49 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="A32" s="7">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c t="s" r="C32" s="8">
-        <v>103</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c t="s" r="H32" s="9">
+      <c r="P32" s="13">
+        <v>2445.3400000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
         <v>104</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c t="s" r="L32" s="10">
-        <v>65</v>
-      </c>
-      <c r="M32" s="10"/>
-      <c t="s" r="N32" s="8">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
         <v>105</v>
       </c>
-      <c r="O32" s="8"/>
-      <c t="s" r="P32" s="11">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
         <v>106</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>2463.3400000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>107</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>108</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>109</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1984,15 +1942,10 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 4:12 PM</t>
+    <t>Thursday, 18 September, 2025 4:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>الويز كبير بالاجنحه</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -284,9 +293,6 @@
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -308,9 +314,6 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
@@ -323,7 +326,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 4:21 PM</t>
+    <t>Thursday, 18 September, 2025 4:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1594,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1604,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,7 +1644,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1653,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,14 +1670,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1686,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1703,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1719,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,14 +1736,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1756,7 +1759,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,49 +1769,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>102</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>65</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>103</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>2445.3400000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>104</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>2505.3400000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>105</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
         <v>106</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>107</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1942,10 +1978,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 4:22 PM</t>
+    <t>Thursday, 18 September, 2025 5:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
@@ -326,7 +338,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 5:08 PM</t>
+    <t>Thursday, 18 September, 2025 5:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1182,7 +1194,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1215,7 +1227,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1231,7 +1243,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1241,14 +1253,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1257,14 +1269,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,14 +1286,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1290,14 +1302,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1314,7 +1326,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1347,7 +1359,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1363,7 +1375,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,14 +1385,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1389,14 +1401,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,11 +1418,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1422,28 +1434,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1455,20 +1467,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1495,7 +1507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1505,14 +1517,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1521,14 +1533,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1545,7 +1557,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,7 +1590,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1600,18 +1612,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,31 +1632,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1653,31 +1665,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,13 +1705,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1710,7 +1722,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1719,20 +1731,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1743,7 +1755,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1759,24 +1771,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,66 +1797,99 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>106</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>69</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>2505.3400000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>105</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>106</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>107</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>2541.3400000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>109</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>110</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>111</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1983,10 +2028,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -59,9 +77,6 @@
     <t>188.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
   </si>
   <si>
@@ -71,12 +86,21 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>187.50</t>
   </si>
   <si>
@@ -104,9 +128,6 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -149,9 +170,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
@@ -218,9 +236,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
@@ -338,7 +353,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 5:09 PM</t>
+    <t>Thursday, 18 September, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,21 +1027,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1038,28 +1053,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1071,14 +1086,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1088,14 +1103,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1111,13 +1126,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1144,24 +1159,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1170,28 +1185,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1210,24 +1225,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1236,31 +1251,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,20 +1284,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1293,7 +1308,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1309,24 +1324,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1342,24 +1357,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,28 +1383,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1401,31 +1416,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1434,20 +1449,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1458,7 +1473,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1474,24 +1489,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1500,31 +1515,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1550,14 +1565,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1566,31 +1581,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,31 +1614,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1632,31 +1647,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1665,31 +1680,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1698,31 +1713,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1764,31 +1779,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1797,31 +1812,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1843,7 +1858,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1854,42 +1869,108 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>2541.3400000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>109</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>107</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>111</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>112</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>2618.3400000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2033,10 +2114,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>4:3</t>
   </si>
   <si>
     <t>60.00</t>
@@ -353,7 +353,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 5:10 PM</t>
+    <t>Thursday, 18 September, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS MILGA MAX 30 TABS</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -305,6 +323,18 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -317,6 +347,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -326,12 +362,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -353,7 +395,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 5:44 PM</t>
+    <t>Thursday, 18 September, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1357,7 +1399,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1367,14 +1409,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,7 +1449,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1423,7 +1465,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1449,14 +1491,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1508,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1506,7 +1548,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1522,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1555,21 +1597,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1581,28 +1623,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1614,14 +1656,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1638,7 +1680,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1654,7 +1696,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,14 +1706,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1713,31 +1755,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1759,7 +1801,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1770,7 +1812,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,7 +1828,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,14 +1838,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1812,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1862,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,49 +1970,214 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>2618.3400000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>114</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>99</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>115</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>118</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>105</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>121</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>16</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>125</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2707.6799999999998</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2124,10 +2331,35 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 6:24 PM</t>
+    <t>Thursday, 18 September, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -149,12 +149,21 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>HELANO LINE GEL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -272,6 +290,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>TRUEVERA SCRUB CREAM</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -314,6 +341,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -323,6 +362,15 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>بامبرز رقم 2</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -374,9 +422,6 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -395,7 +440,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 6:25 PM</t>
+    <t>Thursday, 18 September, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1384,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1350,7 +1395,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1366,7 +1411,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,14 +1421,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1409,11 +1454,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1432,7 +1477,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1482,7 +1527,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1498,7 +1543,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1508,14 +1553,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1586,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1602,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1581,7 +1626,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,7 +1659,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1630,21 +1675,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,11 +1718,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1689,31 +1734,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,11 +1784,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1755,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1817,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,7 +1833,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1805,11 +1850,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1821,31 +1866,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,20 +1899,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1878,7 +1923,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1894,21 +1939,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,11 +2015,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1993,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2010,7 +2055,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2026,7 +2071,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2059,7 +2104,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,14 +2114,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,14 +2130,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,14 +2147,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,49 +2180,214 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2707.6799999999998</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>128</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>129</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>130</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>108</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>13</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>131</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>16</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>134</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>121</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>112</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>16</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>112</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>140</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>141</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>3363.6799999999998</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>143</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>144</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>145</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2566,35 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -68,9 +86,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -110,93 +122,96 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>HELANO LINE GEL</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>600.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>163.6800</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>EGY TOTAVIT SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>HELANO LINE GEL</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>600.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>163.6800</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -269,18 +284,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -299,6 +317,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -332,6 +359,15 @@
     <t>26.5000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -440,7 +476,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 6:38 PM</t>
+    <t>Thursday, 18 September, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1131,7 +1167,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1140,31 +1176,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1173,14 +1209,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1190,14 +1226,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1206,14 +1242,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1223,11 +1259,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1239,20 +1275,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1263,7 +1299,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1272,20 +1308,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1293,10 +1329,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1305,31 +1341,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,20 +1374,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1395,7 +1431,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1411,7 +1447,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1421,14 +1457,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,20 +1473,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1458,10 +1494,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,31 +1506,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,31 +1539,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,31 +1572,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,31 +1605,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1602,28 +1638,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1635,31 +1671,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,31 +1704,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,31 +1737,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,14 +1770,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1787,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1803,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,28 +1836,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1833,28 +1869,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1873,24 +1909,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,31 +1935,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,28 +1968,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1965,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,11 +2018,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1998,14 +2034,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2051,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,14 +2067,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2084,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2100,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,11 +2117,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2097,31 +2133,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,31 +2166,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,31 +2199,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,31 +2232,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,20 +2265,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2253,7 +2289,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2269,24 +2305,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,31 +2331,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,66 +2364,198 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>3363.6799999999998</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>143</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>144</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>145</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>22</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>19</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>146</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>133</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>19</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>124</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>22</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>19</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>124</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>19</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>153</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>3728.0799999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>155</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>156</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>157</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2591,10 +2759,30 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -476,7 +476,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:28 PM</t>
+    <t>Thursday, 18 September, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -140,6 +152,21 @@
     <t>65.00</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -155,9 +182,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -173,6 +197,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
@@ -188,9 +221,6 @@
     <t>4:3</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -425,58 +455,58 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>مبرد قدم</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>لزقه النمر بسعر القطعه</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>مبرد قدم</t>
-  </si>
-  <si>
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:34 PM</t>
+    <t>Thursday, 18 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1312,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1292,14 +1322,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1308,14 +1338,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1332,7 +1362,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1341,14 +1371,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1362,10 +1392,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1374,14 +1404,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1391,14 +1421,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1407,14 +1437,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1424,14 +1454,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1440,31 +1470,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1473,14 +1503,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1490,14 +1520,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1506,31 +1536,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1539,14 +1569,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1556,14 +1586,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1572,14 +1602,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1589,14 +1619,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1605,14 +1635,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,14 +1652,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1655,11 +1685,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1671,14 +1701,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1704,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1721,11 +1751,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1737,14 +1767,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1777,7 +1807,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,14 +1817,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1803,20 +1833,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1827,7 +1857,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1843,7 +1873,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1876,7 +1906,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1886,11 +1916,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1902,31 +1932,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1952,14 +1982,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1968,14 +1998,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,11 +2015,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2025,7 +2055,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2041,7 +2071,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,14 +2097,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2084,14 +2114,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2100,14 +2130,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2146,18 +2176,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2166,20 +2196,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2206,13 +2236,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2223,7 +2253,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2239,7 +2269,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,7 +2279,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2305,7 +2335,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2322,7 +2352,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,14 +2361,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2348,11 +2378,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2371,7 +2401,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2381,11 +2411,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,14 +2444,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2480,14 +2510,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>139</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2513,49 +2543,148 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>3728.0799999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>155</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>156</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>157</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>158</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>143</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>19</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>134</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>160</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>22</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>19</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>134</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>48</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>19</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>163</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>4309.96</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>165</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>166</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>167</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2779,10 +2908,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -113,13 +113,16 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
@@ -254,9 +257,6 @@
     <t>MELLITOFIX 10MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>204.00</t>
   </si>
   <si>
@@ -284,6 +284,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -326,9 +335,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -461,10 +467,22 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -506,7 +524,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:36 PM</t>
+    <t>Thursday, 18 September, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1329,7 +1347,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1338,7 +1356,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1355,11 +1373,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1371,14 +1389,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1388,14 +1406,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1404,7 +1422,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1421,7 +1439,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1470,7 +1488,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1487,11 +1505,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1503,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1524,7 +1542,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1553,11 +1571,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1569,7 +1587,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1586,11 +1604,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,11 +1637,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>24</v>
@@ -1635,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,7 +1670,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1685,11 +1703,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1701,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,11 +1769,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1767,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1873,7 +1891,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1890,7 +1908,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1906,7 +1924,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1939,21 +1957,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1965,20 +1983,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2005,7 +2023,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2015,11 +2033,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2031,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2081,11 +2099,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2147,11 +2165,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,14 +2198,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2213,14 +2231,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2229,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,31 +2280,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,11 +2330,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,11 +2429,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2444,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>149</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2500,7 +2518,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2517,7 +2535,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2533,7 +2551,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2566,7 +2584,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2576,14 +2594,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,7 +2610,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2642,49 +2660,115 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>166</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>4309.96</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>165</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>166</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>19</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>136</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>167</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>49</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>19</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>169</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>4405.96</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>171</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>172</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>173</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2923,10 +3007,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>229.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
     <t>5:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -170,6 +182,24 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FRISTON HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -188,12 +218,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>HELANO LINE GEL</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>165.00</t>
   </si>
   <si>
@@ -524,7 +557,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:43 PM</t>
+    <t>Thursday, 18 September, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1204,18 +1237,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1224,20 +1257,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1248,7 +1281,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1264,7 +1297,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1290,28 +1323,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1323,20 +1356,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1347,7 +1380,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1356,14 +1389,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1380,7 +1413,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1389,14 +1422,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1413,7 +1446,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1422,14 +1455,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1443,10 +1476,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1455,14 +1488,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1472,14 +1505,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1512,7 +1545,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1538,14 +1571,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1554,20 +1587,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1578,7 +1611,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1594,7 +1627,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1611,7 +1644,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1627,7 +1660,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1660,24 +1693,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,17 +1726,17 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1726,7 +1759,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1743,7 +1776,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1802,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1818,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,14 +1835,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1818,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1868,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1901,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1917,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1934,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1917,14 +1950,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,14 +1967,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,14 +1983,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +2000,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1983,28 +2016,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,11 +2066,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2089,7 +2122,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2106,7 +2139,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,24 +2155,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2198,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,14 +2247,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2264,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,14 +2280,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,31 +2346,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,31 +2379,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,31 +2412,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,31 +2445,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,31 +2478,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,31 +2511,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,31 +2544,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,31 +2577,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2610,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,31 +2643,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,31 +2676,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,24 +2716,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,66 +2742,198 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>4405.96</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>171</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>172</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>16</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>24</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>173</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>175</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>156</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>24</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>147</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>177</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>24</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>147</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>179</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>53</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>24</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>180</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>5064.3599999999997</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>182</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>183</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>184</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3017,10 +3182,30 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -557,7 +566,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:45 PM</t>
+    <t>Thursday, 18 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1990,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2056,7 +2065,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2089,7 +2098,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2106,7 +2115,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2155,21 +2164,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2181,20 +2190,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2221,7 +2230,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2287,7 +2296,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2320,7 +2329,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2337,7 +2346,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2405,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2436,7 +2445,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2469,7 +2478,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2485,24 +2494,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2568,7 +2577,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,7 +2610,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2617,7 +2626,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,11 +2636,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2676,7 +2685,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>96</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2815,7 +2824,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,49 +2900,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>181</v>
       </c>
-      <c t="s" r="Q58" s="12">
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>182</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>53</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>24</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>183</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>5064.3599999999997</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>182</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>183</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>184</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>5128.2150000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>185</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>186</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>187</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3202,10 +3244,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:46 PM</t>
+    <t>Thursday, 18 September, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:52 PM</t>
+    <t>Thursday, 18 September, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 7:56 PM</t>
+    <t>Thursday, 18 September, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -212,9 +224,6 @@
     <t>HAEMOKION 10MG/ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -566,7 +575,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:01 PM</t>
+    <t>Thursday, 18 September, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,18 +1288,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1299,20 +1308,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1339,7 +1348,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1365,31 +1374,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1398,20 +1407,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1422,7 +1431,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1455,7 +1464,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1488,7 +1497,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1518,10 +1527,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1587,7 +1596,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,31 +1704,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,31 +1737,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1768,13 +1777,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1801,7 +1810,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1900,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,7 +1935,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1983,7 +1992,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2032,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2098,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2131,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2148,7 +2157,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2197,21 +2206,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2223,20 +2232,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2263,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2362,7 +2371,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2379,7 +2388,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,14 +2447,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2478,7 +2487,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2511,7 +2520,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2527,24 +2536,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2566,15 +2575,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2586,20 +2595,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2610,7 +2619,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2632,7 +2641,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2643,7 +2652,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2659,21 +2668,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2685,20 +2694,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2709,7 +2718,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,7 +2727,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2731,18 +2740,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>99</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2758,24 +2767,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2791,24 +2800,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2824,13 +2833,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2857,24 +2866,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,31 +2892,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>181</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,66 +2925,99 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>184</v>
       </c>
-      <c t="s" r="Q59" s="12">
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>185</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>57</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>28</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>186</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>5128.2150000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>185</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>186</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>187</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>5154.9449999999997</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>188</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>189</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>190</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3249,10 +3291,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>COBALAMOUN 1000MCG30 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
   </si>
   <si>
@@ -212,6 +230,15 @@
     <t>280.0000</t>
   </si>
   <si>
+    <t>GALTIN SACHET</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -233,6 +260,9 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
     <t>HELANO LINE GEL</t>
   </si>
   <si>
@@ -383,6 +413,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -395,6 +434,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>TRIO-CLAR 42 CAP</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>TRUEVERA SCRUB CREAM</t>
   </si>
   <si>
@@ -533,9 +581,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -575,7 +620,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:02 PM</t>
+    <t>Thursday, 18 September, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,21 +1393,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1374,14 +1419,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1414,13 +1459,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1431,7 +1476,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1447,24 +1492,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1473,14 +1518,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1490,14 +1535,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1513,7 +1558,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1523,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1539,14 +1584,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1556,14 +1601,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1572,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1596,7 +1641,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1605,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1622,14 +1667,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1638,14 +1683,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1655,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1678,7 +1723,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1711,7 +1756,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1721,11 +1766,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1737,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,14 +1799,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1770,31 +1815,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1803,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,11 +1865,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1836,31 +1881,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1876,24 +1921,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1902,31 +1947,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1935,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1952,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1968,7 +2013,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1985,14 +2030,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2001,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2034,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2067,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2100,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2133,14 +2178,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2166,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,11 +2228,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2216,14 +2261,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2232,31 +2277,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2327,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2298,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2331,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,20 +2409,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2388,7 +2433,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2404,7 +2449,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2437,7 +2482,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2529,7 +2574,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2546,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2562,28 +2607,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2595,31 +2640,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,31 +2673,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2706,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,28 +2739,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2727,31 +2772,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2793,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2892,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2909,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2925,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2987,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>184</v>
@@ -2965,7 +3010,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2982,42 +3027,240 @@
         <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>5154.9449999999997</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>188</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>189</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>28</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>29</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>190</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>165</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>28</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>191</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>193</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>28</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>194</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>196</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>178</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>28</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>169</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>198</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>28</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>169</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>200</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>63</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>28</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>201</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>5677.9449999999997</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>203</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>204</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>205</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3296,10 +3539,40 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -146,285 +158,288 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>187.5000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>EGY TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FRISTON HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>280.0000</t>
+  </si>
+  <si>
+    <t>GALTIN SACHET</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>HELANO LINE GEL</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>600.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS MILGA MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>163.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>MELANOFREE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>187.5000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>127.6800</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>EGY TOTAVIT SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FRISTON HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>280.0000</t>
-  </si>
-  <si>
-    <t>GALTIN SACHET</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>HELANO LINE GEL</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>600.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIMITLESS MILGA MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>163.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>MELANOFREE CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -572,9 +587,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -606,9 +618,6 @@
   </si>
   <si>
     <t>مبرد قدم</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>معجون سنسوداين 50 مل</t>
@@ -1366,18 +1375,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1386,28 +1395,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1419,20 +1428,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1459,7 +1468,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,11 +1478,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1485,31 +1494,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,20 +1527,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1542,7 +1551,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1591,7 +1600,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,7 +1680,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1683,14 +1692,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1704,10 +1713,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1725,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1756,7 +1765,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1775,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,7 +1791,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1795,15 +1804,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1815,31 +1824,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,31 +1890,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,31 +1923,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,7 +1956,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1960,15 +1969,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1980,28 +1989,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2105,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,7 +2178,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2268,7 +2277,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2284,7 +2293,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2409,20 +2418,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2449,21 +2458,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,7 +2583,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,31 +2814,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,28 +2847,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2871,31 +2880,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,7 +2913,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2917,18 +2926,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,28 +2946,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2970,31 +2979,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,7 +3012,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3016,18 +3025,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3045,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3078,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,28 +3111,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3135,31 +3144,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,31 +3177,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>199</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,66 +3210,99 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>5677.9449999999997</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>203</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>66</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>204</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>205</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>5701.9449999999997</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>206</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>207</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>208</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3569,10 +3611,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -629,7 +629,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:08 PM</t>
+    <t>Thursday, 18 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -272,9 +272,6 @@
     <t>59.4000</t>
   </si>
   <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
     <t>HELANO LINE GEL</t>
   </si>
   <si>
@@ -629,7 +626,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:18 PM</t>
+    <t>Thursday, 18 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1973,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1989,28 +1986,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2022,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2036,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2088,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2121,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2138,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,7 +2151,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2171,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2187,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2204,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2220,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2237,11 +2234,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2253,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,14 +2267,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2286,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,11 +2300,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2319,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,11 +2333,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2352,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2385,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,11 +2399,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2418,28 +2415,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2451,28 +2448,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2484,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2564,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,7 +2580,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2600,11 +2597,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2616,14 +2613,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,11 +2630,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2649,14 +2646,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,14 +2663,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2682,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,11 +2696,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2715,14 +2712,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,14 +2729,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2748,14 +2745,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2762,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2778,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2795,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,31 +2811,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2880,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2894,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,7 +2910,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2930,14 +2927,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2979,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,7 +3009,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3029,14 +3026,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>189</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,14 +3042,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3062,14 +3059,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3128,11 +3125,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3144,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,14 +3158,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,14 +3174,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3217,7 +3214,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,82 +3224,49 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c t="s" r="C67" s="8">
-        <v>203</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c t="s" r="H67" s="9">
-        <v>66</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c t="s" r="L67" s="10">
-        <v>32</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c t="s" r="N67" s="8">
-        <v>204</v>
-      </c>
-      <c r="O67" s="8"/>
-      <c t="s" r="P67" s="11">
+      <c r="P67" s="13">
+        <v>5636.9449999999997</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>205</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>5701.9449999999997</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>206</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
         <v>207</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>208</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3611,15 +3575,10 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:28 PM</t>
+    <t>Thursday, 18 September, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -626,7 +626,16 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 8:55 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3235,38 +3244,71 @@
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>5636.9449999999997</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>205</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>69</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>206</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>207</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>5671.9449999999997</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>208</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>209</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>210</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3575,10 +3617,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -299,6 +311,12 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -398,9 +416,6 @@
     <t>114.00</t>
   </si>
   <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -488,9 +503,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -572,31 +584,25 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
     <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
   </si>
   <si>
     <t>قطن 50جم</t>
@@ -1414,18 +1420,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1434,28 +1440,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1467,20 +1473,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1507,7 +1513,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1517,11 +1523,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1533,31 +1539,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1566,20 +1572,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1590,7 +1596,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1606,7 +1612,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1656,7 +1662,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1689,7 +1695,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1698,7 +1704,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1715,11 +1721,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1731,14 +1737,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1748,14 +1754,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1781,14 +1787,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1804,7 +1810,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1814,14 +1820,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1830,7 +1836,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1843,15 +1849,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1863,31 +1869,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1913,14 +1919,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1929,31 +1935,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1962,31 +1968,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1995,28 +2001,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2028,14 +2034,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2045,14 +2051,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2061,14 +2067,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2078,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2094,31 +2100,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2127,14 +2133,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2160,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2177,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2233,7 +2239,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2250,7 +2256,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2266,7 +2272,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2276,14 +2282,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2292,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2309,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2325,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2365,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2382,7 +2388,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2398,7 +2404,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2415,7 +2421,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2431,21 +2437,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2490,31 +2496,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2563,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2596,7 +2602,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2639,11 +2645,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2820,28 +2826,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2853,31 +2859,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2886,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2919,28 +2925,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2952,31 +2958,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2998,18 +3004,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3018,31 +3024,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3051,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3084,31 +3090,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,31 +3123,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,31 +3156,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3196,18 +3202,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3216,31 +3222,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3249,66 +3255,132 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>70</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>36</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>205</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>207</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>5671.9449999999997</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>73</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>36</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>208</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>5798.4250000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>210</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>211</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>212</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3622,10 +3694,20 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>229.00</t>
   </si>
   <si>
     <t>229.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -641,7 +650,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:12 PM</t>
+    <t>Thursday, 18 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1332,7 +1341,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1341,14 +1350,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1358,14 +1367,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1374,14 +1383,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1391,14 +1400,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1407,14 +1416,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1440,31 +1449,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1473,20 +1482,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1513,21 +1522,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1539,14 +1548,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1579,13 +1588,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1596,7 +1605,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,24 +1621,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1662,7 +1671,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1678,7 +1687,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1697,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1758,7 +1767,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1791,10 +1800,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1829,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1860,7 +1869,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1876,13 +1885,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1909,13 +1918,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1926,7 +1935,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1942,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,31 +1977,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,31 +2010,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2041,13 +2050,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2074,7 +2083,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2091,7 +2100,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2107,24 +2116,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,31 +2142,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2192,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2206,7 +2215,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2272,7 +2281,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2322,7 +2331,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2404,7 +2413,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2437,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2454,7 +2463,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2479,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2484,10 +2493,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,20 +2505,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2517,10 +2526,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,20 +2538,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2553,7 +2562,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2602,7 +2611,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2734,7 +2743,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2751,7 +2760,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2767,7 +2776,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2817,7 +2826,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2850,7 +2859,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2866,7 +2875,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2883,7 +2892,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2899,24 +2908,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2938,15 +2947,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2958,20 +2967,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2982,7 +2991,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,13 +3007,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3015,7 +3024,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3031,21 +3040,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3057,20 +3066,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3078,10 +3087,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,31 +3099,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>53</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3132,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3196,24 +3205,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,24 +3238,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3297,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3334,7 +3343,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3349,38 +3358,71 @@
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>5798.4250000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>210</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>76</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>39</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>211</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>212</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>5836.4250000000002</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>213</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>214</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>215</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3704,10 +3746,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -218,7 +230,7 @@
     <t>44.00</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>88.0000</t>
   </si>
   <si>
     <t>EGY TOTAVIT SYRUP 100 ML</t>
@@ -332,6 +344,9 @@
     <t>4:3</t>
   </si>
   <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -350,9 +365,6 @@
     <t>163.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>MELANOFREE CREAM 30 GM</t>
   </si>
   <si>
@@ -380,6 +392,15 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -530,12 +551,6 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -650,7 +665,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:20 PM</t>
+    <t>Thursday, 18 September, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,18 +1510,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1515,28 +1530,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1548,20 +1563,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1588,7 +1603,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1598,11 +1613,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1614,31 +1629,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1647,20 +1662,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1671,7 +1686,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1687,7 +1702,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,14 +1712,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1737,7 +1752,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1770,7 +1785,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1796,14 +1811,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1827,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1844,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1885,7 +1900,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,7 +1926,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1924,15 +1939,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1944,31 +1959,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,31 +2025,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,31 +2058,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,28 +2091,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2141,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,31 +2157,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2175,31 +2190,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,11 +2240,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2241,7 +2256,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,14 +2438,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,31 +2553,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,11 +2603,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,28 +2652,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2670,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2702,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,11 +2735,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2768,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,11 +2933,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2934,31 +2949,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,28 +2982,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3000,31 +3015,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,28 +3048,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3066,28 +3081,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3099,7 +3114,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3112,18 +3127,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,7 +3147,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3145,18 +3160,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,31 +3180,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,31 +3213,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>46</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3246,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3279,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3312,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,28 +3345,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3363,66 +3378,165 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>211</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>16</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>43</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>185</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>212</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>5836.4250000000002</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>77</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>43</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>213</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>215</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>80</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>43</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>216</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>6036.2150000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>218</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>219</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>220</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3751,10 +3865,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -665,7 +665,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:28 PM</t>
+    <t>Thursday, 18 September, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,27 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -158,12 +179,21 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -212,16 +242,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>127.6800</t>
-  </si>
-  <si>
-    <t>2:2</t>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
@@ -332,6 +359,9 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t>IVY ACETYL CYSTEINE SYRUP</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -446,6 +476,15 @@
     <t>114.00</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -470,18 +509,12 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -491,6 +524,21 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>TADANERFI 5MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TRIO-CLAR 42 CAP</t>
   </si>
   <si>
@@ -629,6 +677,15 @@
     <t>55.00</t>
   </si>
   <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -656,6 +713,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>معجون سنسوداين مفعول سريع 75 مل</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -665,7 +731,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:41 PM</t>
+    <t>Thursday, 18 September, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1537,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1481,14 +1547,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1504,7 +1570,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1514,14 +1580,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1530,31 +1596,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1563,31 +1629,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1596,20 +1662,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1636,13 +1702,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1669,24 +1735,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1695,14 +1761,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1719,7 +1785,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1735,7 +1801,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1768,24 +1834,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1794,14 +1860,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1811,14 +1877,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1827,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1844,11 +1910,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1867,7 +1933,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1877,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1893,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1910,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1926,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1943,11 +2009,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1959,31 +2025,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1992,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2032,7 +2098,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2042,11 +2108,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2058,31 +2124,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2091,31 +2157,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2124,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2141,11 +2207,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2157,31 +2223,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2197,21 +2263,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2223,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2240,14 +2306,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2256,7 +2322,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2273,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2289,31 +2355,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2322,31 +2388,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2355,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2395,7 +2461,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2405,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2421,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2438,11 +2504,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2454,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2471,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2487,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2504,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2520,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2537,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2570,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2586,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2603,11 +2669,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2619,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2636,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2652,31 +2718,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2685,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,14 +2768,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2718,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2751,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,11 +2834,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2784,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2817,31 +2883,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2850,7 +2916,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2867,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2883,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2916,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2933,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2949,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2982,7 +3048,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2999,11 +3065,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3015,7 +3081,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3032,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3048,28 +3114,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3081,28 +3147,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3114,31 +3180,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,31 +3213,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3180,31 +3246,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,7 +3279,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3226,18 +3292,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,31 +3312,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3279,31 +3345,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3312,31 +3378,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3345,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3378,31 +3444,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,31 +3477,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3444,31 +3510,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3484,13 +3550,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3498,45 +3564,342 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>217</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>6036.2150000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>218</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>50</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>51</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>219</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>220</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>50</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>141</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>50</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>223</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>16</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>50</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>226</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>228</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>210</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>50</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>201</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>16</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>50</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>201</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>86</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>50</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>232</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>16</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>50</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>235</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>89</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>50</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>238</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>7085.2150000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3880,10 +4243,55 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:48 PM</t>
+    <t>Thursday, 18 September, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:49 PM</t>
+    <t>Thursday, 18 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -723,9 +732,6 @@
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
-  </si>
-  <si>
-    <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
@@ -3418,7 +3424,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,7 +3474,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,7 +3490,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3531,10 +3537,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,7 +3549,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>70</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3615,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>36</v>
@@ -3649,7 +3655,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3682,7 +3688,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3715,7 +3721,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3762,10 +3768,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3814,7 +3820,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3847,7 +3853,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3868,38 +3874,71 @@
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>7085.2150000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>240</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>89</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>50</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>205</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>241</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>7190.2150000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>242</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>243</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>244</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4327,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -737,7 +737,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:55 PM</t>
+    <t>Thursday, 18 September, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -221,12 +233,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>59.7600</t>
   </si>
   <si>
@@ -497,6 +503,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
   </si>
   <si>
@@ -515,6 +530,9 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>SIMEDILL EMULSION 120 ML</t>
+  </si>
+  <si>
     <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
   </si>
   <si>
@@ -566,16 +584,19 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -659,12 +680,27 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>زيت جونسون كبير</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -737,7 +773,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 9:59 PM</t>
+    <t>Thursday, 18 September, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1411,7 +1447,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1421,14 +1457,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1461,7 +1497,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1494,7 +1530,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1527,7 +1563,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1543,7 +1579,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1553,14 +1589,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1576,7 +1612,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1593,7 +1629,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1602,14 +1638,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1626,7 +1662,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1659,7 +1695,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1681,15 +1717,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1701,31 +1737,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1734,20 +1770,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1758,7 +1794,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1774,7 +1810,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1800,14 +1836,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1833,31 +1869,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1866,20 +1902,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1890,7 +1926,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1916,14 +1952,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1932,14 +1968,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1949,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1965,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1998,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2038,7 +2074,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2064,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,14 +2117,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2097,14 +2133,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,11 +2150,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2130,31 +2166,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2163,31 +2199,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,7 +2249,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2236,24 +2272,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2269,21 +2305,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2295,31 +2331,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2328,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2361,31 +2397,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2394,31 +2430,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2434,24 +2470,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2477,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2493,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2510,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2526,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2559,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2592,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2625,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2658,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2675,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2691,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2708,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2724,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2741,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2790,7 +2826,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2807,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2823,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2863,7 +2899,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2877,7 +2913,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2889,31 +2925,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2922,31 +2958,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2955,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,11 +3008,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2995,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3021,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3038,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3054,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3071,11 +3107,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3094,7 +3130,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3104,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3120,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3137,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3153,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3170,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3186,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3203,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3269,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,11 +3338,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3318,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,31 +3387,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3384,31 +3420,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3417,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,31 +3486,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3516,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3549,31 +3585,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3582,31 +3618,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3615,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,31 +3684,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3714,31 +3750,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3747,31 +3783,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3820,24 +3856,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3853,13 +3889,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3870,7 +3906,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3886,59 +3922,224 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>7190.2150000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>242</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>243</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>220</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>54</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>208</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>244</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>245</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>20</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>54</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>208</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>88</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>54</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>247</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>20</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>54</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>250</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>91</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>54</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>212</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>7426.9250000000002</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>254</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>255</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>256</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4332,10 +4533,35 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -617,6 +617,9 @@
     <t>26.5000</t>
   </si>
   <si>
+    <t>ZINCODERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
     <t>زيت جونسون كبير</t>
   </si>
   <si>
@@ -773,7 +779,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:28 PM</t>
+    <t>Thursday, 18 September, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3493,7 +3499,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3526,24 +3532,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,7 +3657,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,7 +3987,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,7 +4053,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,49 +4103,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>20</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>54</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>252</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>7426.9250000000002</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>254</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>91</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>54</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>213</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>255</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>7516.9250000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>256</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>257</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>258</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4558,10 +4630,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -158,84 +158,87 @@
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COBALAMOUN 1000MCG30 TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COBALAMOUN 1000MCG30 TAB</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELTACLAV 1 GM 14F.C  TAB</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
     <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -290,9 +293,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -623,6 +623,15 @@
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>الويز كبير بالاجنحه</t>
   </si>
   <si>
@@ -779,7 +788,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:29 PM</t>
+    <t>Thursday, 18 September, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1734,7 +1743,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1965,7 +1974,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1974,7 +1983,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1991,11 +2000,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,7 +2049,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2057,11 +2066,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>40</v>
@@ -2073,7 +2082,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2090,7 +2099,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2278,7 +2287,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2519,7 +2528,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2585,7 +2594,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2674,7 +2683,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2839,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2872,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3509,7 +3518,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3565,17 +3574,17 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3664,7 +3673,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>40</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3714,7 +3723,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,11 +3782,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3829,7 +3838,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3846,7 +3855,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>231</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,7 +3864,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>40</v>
@@ -3961,7 +3970,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3994,7 +4003,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4027,7 +4036,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4126,7 +4135,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4159,7 +4168,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,49 +4178,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>7516.9250000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>256</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>257</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>92</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>54</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>216</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>258</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>7639.6549999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>259</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>260</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>261</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4640,10 +4682,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -746,6 +746,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -788,7 +794,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:38 PM</t>
+    <t>Thursday, 18 September, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4036,7 +4042,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4046,11 +4052,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4062,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,14 +4085,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4102,7 +4108,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4116,10 +4122,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,14 +4134,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,14 +4151,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4161,14 +4167,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4178,11 +4184,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4211,7 +4217,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4222,38 +4228,71 @@
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>7639.6549999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>259</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>92</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>54</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>216</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>7664.6549999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>261</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>262</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>263</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4687,10 +4726,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 2MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -185,9 +194,6 @@
     <t>COBALAMOUN 1000MCG30 TAB</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -356,6 +362,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>INFLUVAC TETRA 1 PREF.SYRINGE SUSP. FOR INJ S.C. 0.5ML.</t>
   </si>
   <si>
@@ -557,6 +572,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TRIO-CLAR 42 CAP</t>
   </si>
   <si>
@@ -794,7 +818,10 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 10:56 PM</t>
+    <t xml:space="preserve">معطر فريدا </t>
+  </si>
+  <si>
+    <t>Thursday, 18 September, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1627,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1610,11 +1637,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1626,14 +1653,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1650,7 +1677,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1659,7 +1686,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1676,14 +1703,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1699,7 +1726,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1709,14 +1736,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1725,14 +1752,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1742,14 +1769,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1758,31 +1785,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1791,20 +1818,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1831,21 +1858,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1874,11 +1901,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1890,14 +1917,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1907,11 +1934,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1923,31 +1950,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1956,31 +1983,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2006,14 +2033,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2022,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,14 +2066,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2072,14 +2099,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2105,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2128,7 +2155,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2154,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2198,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,14 +2231,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,7 +2247,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2233,15 +2260,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2253,31 +2280,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2326,24 +2353,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2359,24 +2386,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2385,28 +2412,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2435,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2451,31 +2478,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2484,31 +2511,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,31 +2544,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,28 +2577,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2600,11 +2627,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2616,7 +2643,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2633,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2649,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2682,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2715,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,11 +2792,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2781,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,11 +2891,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2953,7 +2980,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2970,7 +2997,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2986,21 +3013,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3012,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3056,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,28 +3072,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3078,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3118,7 +3145,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,11 +3155,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3144,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,11 +3188,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3177,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,7 +3237,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3227,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3283,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,11 +3320,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3342,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,11 +3386,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3375,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3415,7 +3442,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3432,7 +3459,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3448,7 +3475,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3465,7 +3492,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3481,7 +3508,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3507,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,11 +3617,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3606,28 +3633,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3639,31 +3666,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,31 +3699,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,31 +3732,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,28 +3765,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3771,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3844,13 +3871,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3877,24 +3904,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3910,24 +3937,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3976,24 +4003,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>40</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4048,18 +4075,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4075,24 +4102,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4108,24 +4135,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4167,28 +4194,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4200,31 +4227,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4233,66 +4260,198 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>7664.6549999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>261</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>91</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>57</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>262</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>263</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>20</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>57</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>265</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>94</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>57</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>224</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>43</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>57</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>89</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>7854.1549999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>270</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>271</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>272</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4731,10 +4890,30 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -389,6 +398,9 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -557,6 +569,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
     <t>TADANERFI 5MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -632,6 +653,18 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8249:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
   </si>
   <si>
@@ -731,13 +764,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -821,7 +851,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:12 PM</t>
+    <t>Thursday, 18 September, 2025 11:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,24 +1855,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1851,28 +1881,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1884,28 +1914,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1990,13 +2020,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2007,7 +2037,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2023,24 +2053,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2056,7 +2086,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2066,14 +2096,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2089,7 +2119,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2106,7 +2136,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2155,7 +2185,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2169,10 +2199,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2202,10 +2232,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2231,14 +2261,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2254,7 +2284,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2271,7 +2301,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2293,7 +2323,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2320,13 +2350,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2337,7 +2367,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2353,7 +2383,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2379,31 +2409,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,31 +2442,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2452,13 +2482,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2502,7 +2532,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2518,7 +2548,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2535,7 +2565,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2557,18 +2587,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,28 +2607,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2610,31 +2640,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,7 +2673,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2660,11 +2690,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,11 +2723,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2789,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,14 +2822,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2825,14 +2855,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,11 +2888,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2954,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,11 +2987,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3053,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,14 +3086,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,28 +3102,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3152,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,28 +3168,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3171,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,11 +3251,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3237,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,11 +3284,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3270,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3320,11 +3350,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3336,7 +3366,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3353,11 +3383,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3369,14 +3399,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3432,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,11 +3449,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,11 +3482,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3548,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,14 +3564,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3581,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3630,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3647,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,14 +3680,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3673,7 +3703,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,11 +3746,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3732,28 +3762,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3765,28 +3795,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3805,24 +3835,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3831,31 +3861,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,28 +3894,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3897,28 +3927,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3930,31 +3960,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3970,13 +4000,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3987,7 +4017,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4009,7 +4039,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4020,7 +4050,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>242</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,20 +4059,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4050,10 +4080,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4092,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4102,24 +4132,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4135,24 +4165,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4168,24 +4198,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4201,24 +4231,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,28 +4257,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>43</v>
@@ -4267,24 +4297,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,28 +4323,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4326,7 +4356,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4339,15 +4369,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4359,31 +4389,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4392,66 +4422,198 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>7854.1549999999997</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>270</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>271</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>94</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>60</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>272</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>20</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>60</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>275</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>97</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>60</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>235</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>43</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>60</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>92</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>8178.1549999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>280</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>281</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>282</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4910,10 +5072,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -269,10 +278,10 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>3:2</t>
+    <t>191.5200</t>
+  </si>
+  <si>
+    <t>3:3</t>
   </si>
   <si>
     <t>EFEMYO OPHTH. SUSP. 10 ML</t>
@@ -341,6 +350,15 @@
     <t>55.4400</t>
   </si>
   <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>HAEMOKION 10MG/ML 3 AMP.</t>
   </si>
   <si>
@@ -413,9 +431,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -665,6 +680,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XICLAV 1GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>75.5000</t>
+  </si>
+  <si>
     <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
   </si>
   <si>
@@ -851,7 +875,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:17 PM</t>
+    <t>Thursday, 18 September, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,24 +1912,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1914,28 +1938,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1947,28 +1971,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2053,13 +2077,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2070,7 +2094,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2086,24 +2110,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2119,7 +2143,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,14 +2153,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2152,7 +2176,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2169,7 +2193,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2202,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2219,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2218,7 +2242,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2232,10 +2256,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2265,10 +2289,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2317,7 +2341,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2334,7 +2358,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2356,7 +2380,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2383,13 +2407,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2400,7 +2424,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2416,7 +2440,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2442,7 +2466,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2455,15 +2479,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2475,28 +2499,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2508,7 +2532,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2521,18 +2545,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2548,13 +2572,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2565,7 +2589,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2581,7 +2605,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2598,7 +2622,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2614,24 +2638,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,31 +2664,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,7 +2697,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2686,15 +2710,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2706,31 +2730,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,7 +2763,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2756,11 +2780,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2805,7 +2829,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2845,7 +2869,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2912,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2928,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2945,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2970,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,11 +3077,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3142,7 +3166,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3159,7 +3183,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3175,21 +3199,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3242,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,28 +3258,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3267,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3331,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3333,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,11 +3374,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3366,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3407,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3440,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,7 +3473,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3472,7 +3496,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3505,7 +3529,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,7 +3555,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3548,11 +3572,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3670,7 +3694,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3687,7 +3711,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3703,7 +3727,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3828,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3894,20 +3918,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3915,7 +3939,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3927,31 +3951,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,31 +3984,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3993,31 +4017,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,28 +4050,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4059,31 +4083,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,31 +4116,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4132,13 +4156,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4165,24 +4189,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4231,24 +4255,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,31 +4281,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,31 +4314,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4336,18 +4360,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4363,24 +4387,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4396,24 +4420,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,31 +4446,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,28 +4479,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4488,31 +4512,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,31 +4545,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4561,59 +4585,158 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>8178.1549999999997</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>280</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>281</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>282</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>20</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>63</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>283</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>285</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>100</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>63</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>243</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>43</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>63</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>95</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>8363.5450000000001</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>288</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>289</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>290</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5092,10 +5215,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>-63.3600</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
   </si>
   <si>
@@ -272,6 +284,15 @@
     <t>187.5000</t>
   </si>
   <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -314,6 +335,18 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>ERASTAPEX 40MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -407,6 +440,15 @@
     <t>600.0000</t>
   </si>
   <si>
+    <t>INLETAIR 10MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>-23.5000</t>
+  </si>
+  <si>
     <t>IVY ACETYL CYSTEINE SYRUP</t>
   </si>
   <si>
@@ -479,6 +521,15 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>-39.6000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -524,6 +575,15 @@
     <t>114.00</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>-21.7800</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -554,6 +614,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>PENTASA 500MG 100 SLOW RELEASE TAB</t>
   </si>
   <si>
@@ -563,15 +632,45 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>PHYTO K 10 MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>-23.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
+    <t>SELECTIVAL 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>SIMEDILL EMULSION 120 ML</t>
   </si>
   <si>
@@ -602,9 +701,6 @@
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -707,9 +803,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -779,9 +872,6 @@
     <t>زيت جونسون كبير</t>
   </si>
   <si>
-    <t>115.00</t>
-  </si>
-  <si>
     <t>115.0000</t>
   </si>
   <si>
@@ -854,9 +944,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>معجون سنسوداين مفعول سريع 75 مل</t>
   </si>
   <si>
@@ -875,7 +962,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:21 PM</t>
+    <t>Thursday, 18 September, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1966,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1896,7 +1983,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1905,14 +1992,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1922,14 +2009,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1938,31 +2025,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,28 +2058,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2004,24 +2091,24 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -2044,7 +2131,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,11 +2141,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2070,7 +2157,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2087,11 +2174,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2103,31 +2190,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2136,31 +2223,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2169,14 +2256,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,14 +2273,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,14 +2289,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2242,7 +2329,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2259,7 +2346,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2275,7 +2362,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2289,10 +2376,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2301,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2405,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2341,7 +2428,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2355,10 +2442,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2367,14 +2454,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2391,7 +2478,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2400,31 +2487,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2433,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,11 +2537,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2466,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,28 +2586,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2532,28 +2619,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2565,31 +2652,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,11 +2702,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2631,7 +2718,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2644,15 +2731,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2664,7 +2751,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2677,18 +2764,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,28 +2784,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2730,31 +2817,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,7 +2850,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2780,14 +2867,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,14 +2900,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2829,7 +2916,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2842,15 +2929,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2862,31 +2949,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,7 +2982,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2912,14 +2999,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2928,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,11 +3098,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3027,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,11 +3164,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3093,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3126,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,11 +3263,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3192,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,11 +3329,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3258,31 +3345,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3428,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3357,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3477,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3494,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3527,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3456,31 +3543,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,14 +3576,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3593,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,14 +3692,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3654,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3687,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3720,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3852,14 +3939,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3918,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,7 +4038,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3968,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,11 +4088,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4017,31 +4104,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,31 +4137,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,31 +4170,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,31 +4203,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,28 +4236,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4182,31 +4269,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,28 +4302,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4248,28 +4335,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4281,31 +4368,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,31 +4401,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,31 +4434,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4380,31 +4467,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,31 +4500,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,31 +4533,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,28 +4566,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4512,31 +4599,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,31 +4632,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,28 +4665,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4611,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,31 +4731,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,66 +4764,396 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>8363.5450000000001</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>288</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>289</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>290</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>295</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>296</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>67</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>297</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>298</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>174</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>67</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>299</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>301</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>302</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>67</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>283</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>303</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>20</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>67</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>304</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>306</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>282</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>67</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>270</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>308</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>20</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>67</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>270</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>104</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>67</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>310</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>311</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>20</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>67</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>312</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>314</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>107</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>67</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>274</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>316</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>43</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>67</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>102</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>8491.5249999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>317</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>318</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>319</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5230,10 +5647,60 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -671,6 +671,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>14:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SIMEDILL EMULSION 120 ML</t>
   </si>
   <si>
@@ -932,9 +944,6 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>مبرد قدم</t>
   </si>
   <si>
@@ -962,7 +971,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:26 PM</t>
+    <t>Thursday, 18 September, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3847,7 +3856,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4038,7 +4047,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>37</v>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4260,7 +4269,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4276,7 +4285,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,7 +4344,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,28 +4443,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,7 +4493,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4521,10 +4530,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4566,7 +4575,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4639,7 +4648,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4665,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>290</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,7 +4740,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4814,11 +4823,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>43</v>
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4889,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4913,11 +4922,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5068,7 +5077,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,49 +5120,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>319</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>43</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>67</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>102</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>8491.5249999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>317</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>318</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>319</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>8521.5249999999996</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>320</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>321</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>322</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5697,10 +5739,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -572,9 +581,6 @@
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -671,10 +677,82 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>14:1</t>
+    <t>SIMEDILL EMULSION 120 ML</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
+    <t>TADANERFI 5MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TRIO-CLAR 42 CAP</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>TRUEVERA SCRUB CREAM</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
     <t>30.00</t>
@@ -683,81 +761,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>SIMEDILL EMULSION 120 ML</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>131.00</t>
-  </si>
-  <si>
-    <t>131.0000</t>
-  </si>
-  <si>
-    <t>TADANERFI 5MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>TAVANIC 500MG 5 TAB</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TRIO-CLAR 42 CAP</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>TRUEVERA SCRUB CREAM</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>UNITRIN 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -878,6 +881,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
     <t>جل صبار للبشره</t>
   </si>
   <si>
@@ -971,7 +977,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:27 PM</t>
+    <t>Thursday, 18 September, 2025 11:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2536,7 +2542,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2569,7 +2575,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2586,7 +2592,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2608,7 +2614,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2635,13 +2641,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2652,7 +2658,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2668,7 +2674,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2701,7 +2707,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2727,31 +2733,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,13 +2806,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2850,7 +2856,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2866,7 +2872,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2883,7 +2889,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2899,7 +2905,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2916,7 +2922,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,24 +2938,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2991,28 +2997,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,7 +3186,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3196,7 +3202,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3213,7 +3219,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,7 +3235,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3262,7 +3268,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3295,7 +3301,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3328,7 +3334,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3394,7 +3400,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3427,7 +3433,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3444,7 +3450,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3460,7 +3466,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3552,31 +3558,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,28 +3591,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3639,7 +3645,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,11 +3674,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,7 +3763,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3804,10 +3810,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,7 +3888,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3981,7 +3987,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4035,7 +4041,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4047,7 +4053,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4080,7 +4086,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4097,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4113,7 +4119,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4130,11 +4136,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4146,7 +4152,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4200,7 +4206,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>37</v>
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,7 +4383,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4394,11 +4400,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4417,7 +4423,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4450,7 +4456,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,28 +4482,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,7 +4614,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,11 +4697,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4714,7 +4720,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>294</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>43</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5044,7 +5050,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,7 +5076,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,49 +5159,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>319</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>107</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>67</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>279</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>321</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>43</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>67</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>102</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>8521.5249999999996</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>320</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>321</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>8619.1450000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>322</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>323</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>324</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5744,10 +5816,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -977,7 +977,7 @@
     <t xml:space="preserve">معطر فريدا </t>
   </si>
   <si>
-    <t>Thursday, 18 September, 2025 11:32 PM</t>
+    <t>Thursday, 18 September, 2025 11:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 12:09 AM</t>
+    <t>Friday, 19 September, 2025 12:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-18_00-00.xlsx
+++ b/DaySale_2025-09-18_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 19 September, 2025 12:18 AM</t>
+    <t>Friday, 19 September, 2025 12:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
